--- a/Implementation/Python/experiment2Agg.xlsx
+++ b/Implementation/Python/experiment2Agg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,50 +455,59 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>92.23835616438356</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.00273972602739726</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.00136986301369863</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>46.14839797639123</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.003653738055087128</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0002810567734682406</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>13</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
